--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredan/Documents/Code/CS311/Project3_Machine_Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC45AD7-7C3B-5E4B-9CD4-0BDBB218191E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0B089B-B4A8-AE4F-8F5D-C0084125E3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11320" windowHeight="16000" xr2:uid="{F2C63BD0-BCA7-4048-9F54-77350BC045A0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Accuracy</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>rbf</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>poly</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
   </si>
 </sst>
 </file>
@@ -489,7 +498,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,6 +1272,15 @@
       </c>
       <c r="B26" t="s">
         <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -8,13 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaredan/Documents/Code/CS311/Project3_Machine_Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0B089B-B4A8-AE4F-8F5D-C0084125E3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAD952F-73F6-4F40-A20D-7940D497190F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11320" windowHeight="16000" xr2:uid="{F2C63BD0-BCA7-4048-9F54-77350BC045A0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{F2C63BD0-BCA7-4048-9F54-77350BC045A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$84</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$85</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$84:$S$84</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$85:$S$85</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$A$84</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$A$85</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$B$84:$S$84</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$B$85:$S$85</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Accuracy</t>
   </si>
@@ -112,6 +122,27 @@
   <si>
     <t>sigmoid</t>
   </si>
+  <si>
+    <t>uniform(Not Standardized)</t>
+  </si>
+  <si>
+    <t>distance(Standardized)</t>
+  </si>
+  <si>
+    <t>distance(Not Standardized)</t>
+  </si>
+  <si>
+    <t>uniform(Standardized)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensemble </t>
+  </si>
+  <si>
+    <t>Gradient(Learning Rate = 1)</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
+  </si>
 </sst>
 </file>
 
@@ -172,11 +203,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -196,6 +227,7788 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Decision</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Tree Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gini</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.7988685822845438E-2"/>
+                  <c:y val="-2.5293934263073015E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.80330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84619999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8538</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85529999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85140000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8478</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29C8-104B-B005-7E577600B50A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>entropy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.4291012897007549E-2"/>
+                  <c:y val="-3.7350146971878079E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5743091848448285E-2"/>
+                  <c:y val="3.0164644197430306E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.7322936710170867E-2"/>
+                  <c:y val="3.73983718227133E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.4811943726672408E-2"/>
+                  <c:y val="7.1155767407367426E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.2640226781131448E-3"/>
+                  <c:y val="1.8108431488625201E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2173184832892219E-2"/>
+                  <c:y val="6.151079724032342E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9013495109447175E-2"/>
+                  <c:y val="3.0164644197430261E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.2173184832892219E-2"/>
+                  <c:y val="4.9454584531518311E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5244880929456319E-3"/>
+                  <c:y val="2.7753401655669249E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5332874556337266E-2"/>
+                  <c:y val="4.9454584531518311E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1750901009160233E-2"/>
+                  <c:y val="6.1510797240323371E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.75919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76359999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84219999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84540000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8548</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84750000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84730000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29C8-104B-B005-7E577600B50A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1652254003227361E-2"/>
+                  <c:y val="3.2575886739191276E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.1043329546681553E-3"/>
+                  <c:y val="3.0164644197430261E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5344259391120616E-3"/>
+                  <c:y val="5.6688312156801438E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.1652254003227423E-2"/>
+                  <c:y val="3.73983718227133E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2150464922219386E-3"/>
+                  <c:y val="4.2220856906235324E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.797163345011751E-2"/>
+                  <c:y val="3.2575886739191276E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3232098864949884E-2"/>
+                  <c:y val="2.5342159113908237E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3770082067342691E-2"/>
+                  <c:y val="2.5342159113908237E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5349926929065214E-2"/>
+                  <c:y val="3.2575886739191276E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.1131323173562502E-2"/>
+                  <c:y val="1.8108431488625201E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.3232098864949884E-2"/>
+                  <c:y val="1.0874703863342165E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8070280456050327E-2"/>
+                  <c:y val="2.2930916572147225E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-29C8-104B-B005-7E577600B50A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.75919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76359999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82740000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85509999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84740000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.84750000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-29C8-104B-B005-7E577600B50A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="433792783"/>
+        <c:axId val="433868111"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="433792783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>max_depth</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433868111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="433868111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.75"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="433792783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Neighbors Classifiers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform(Not Standardized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$15:$Q$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76459999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7923</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78380000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79790000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80010000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79100000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BBA-4B49-9235-B351EFBF474D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>distance(Not Standardized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77769999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78090000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.79590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80159999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79949999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0BBA-4B49-9235-B351EFBF474D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform(Standardized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.80210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83289999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.83760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8377</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83909999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83399999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0BBA-4B49-9235-B351EFBF474D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>distance(Standardized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$Q$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.80210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83220000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.83279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.83689999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8397</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8397</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.83819999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.83509999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.83420000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.83479999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0BBA-4B49-9235-B351EFBF474D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="400152607"/>
+        <c:axId val="400321791"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="400152607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> neighbors</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400321791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="400321791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.72"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="400152607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Radius</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Neighbors Classifiers (Not standardized)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$20:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79069999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79779999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79790000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78459999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50C2-FF4B-AB9D-F5308A09C5EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$K$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$21:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.77910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79690000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.78059999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-50C2-FF4B-AB9D-F5308A09C5EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="484539103"/>
+        <c:axId val="484528719"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="484539103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Radius</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484528719"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="484528719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="484539103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Radius Neighbors Classifiers (Standardized)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uniform</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="2">
+                  <c:v>0.80330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80889999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80869999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2A6-564D-9057-81EDC0EBA962}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>distance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$N$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.79820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81110000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79790000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78469999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.77429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.76829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.76419999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2A6-564D-9057-81EDC0EBA962}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="513013823"/>
+        <c:axId val="442234399"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="513013823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Radius</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442234399"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="442234399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="513013823"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ensemble</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gradient(Learning Rate = 1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$84:$S$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.80330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.82330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8528</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85560000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.8528</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8538</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85440000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DC3-4848-A354-7EA2B62F0F48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RandomForest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$85:$S$85</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0.75919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84509999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85419999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85519999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85660000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85870000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.86129999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8659</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86450000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8DC3-4848-A354-7EA2B62F0F48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="539023903"/>
+        <c:axId val="517200767"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="539023903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Max</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Depth</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="517200767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="517200767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.75"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539023903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>338666</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>118534</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F5D88-664E-C8DD-1408-54735EC08613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>433677</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>79376</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>141432</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C46AEC-5E02-FD8D-C255-EC212C365E7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>773544</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>143741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86590</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>72159</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5196D319-4B68-3C43-32EE-F9705E1ADB33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>759112</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>158171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>86590</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>72158</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E36A33-60ED-BF58-7FE1-5AF1C0E51D9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>474869</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>174486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>110434</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>147247</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFCFA8C1-C751-AD25-42F5-94687E6AC284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,30 +8308,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BFF715-AC7E-344E-9251-90DCC706B4F6}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="69" workbookViewId="0">
+      <selection activeCell="P93" sqref="P93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -571,40 +8384,40 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.80489999999999995</v>
+        <v>0.80330000000000001</v>
       </c>
       <c r="C4">
-        <v>0.80489999999999995</v>
+        <v>0.80330000000000001</v>
       </c>
       <c r="D4">
-        <v>0.82469999999999999</v>
+        <v>0.82320000000000004</v>
       </c>
       <c r="E4">
-        <v>0.84519999999999995</v>
+        <v>0.84619999999999995</v>
       </c>
       <c r="F4">
-        <v>0.84599999999999997</v>
+        <v>0.84360000000000002</v>
       </c>
       <c r="G4">
-        <v>0.85089999999999999</v>
+        <v>0.84660000000000002</v>
       </c>
       <c r="H4" s="2">
-        <v>0.85660000000000003</v>
+        <v>0.8538</v>
       </c>
       <c r="I4">
-        <v>0.85519999999999996</v>
+        <v>0.85529999999999995</v>
       </c>
       <c r="J4">
-        <v>0.85340000000000005</v>
+        <v>0.85140000000000005</v>
       </c>
       <c r="K4">
-        <v>0.85350000000000004</v>
+        <v>0.85419999999999996</v>
       </c>
       <c r="L4">
-        <v>0.85489999999999999</v>
+        <v>0.85160000000000002</v>
       </c>
       <c r="M4">
-        <v>0.85370000000000001</v>
+        <v>0.8478</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -612,40 +8425,40 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.76400000000000001</v>
+        <v>0.75919999999999999</v>
       </c>
       <c r="C5">
-        <v>0.76880000000000004</v>
+        <v>0.76359999999999995</v>
       </c>
       <c r="D5">
-        <v>0.82820000000000005</v>
+        <v>0.82730000000000004</v>
       </c>
       <c r="E5">
-        <v>0.84519999999999995</v>
+        <v>0.84219999999999995</v>
       </c>
       <c r="F5">
-        <v>0.84519999999999995</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="G5">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="I5">
+        <v>0.8548</v>
+      </c>
+      <c r="J5">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="L5">
         <v>0.84750000000000003</v>
       </c>
-      <c r="H5">
-        <v>0.85140000000000005</v>
-      </c>
-      <c r="I5">
-        <v>0.85370000000000001</v>
-      </c>
-      <c r="J5">
-        <v>0.85670000000000002</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="L5">
-        <v>0.85509999999999997</v>
-      </c>
       <c r="M5">
-        <v>0.85199999999999998</v>
+        <v>0.84730000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
@@ -653,40 +8466,40 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>0.76400000000000001</v>
+        <v>0.75919999999999999</v>
       </c>
       <c r="C6">
-        <v>0.76880000000000004</v>
+        <v>0.76359999999999995</v>
       </c>
       <c r="D6">
-        <v>0.82820000000000005</v>
+        <v>0.82740000000000002</v>
       </c>
       <c r="E6">
-        <v>0.84519999999999995</v>
+        <v>0.84209999999999996</v>
       </c>
       <c r="F6">
-        <v>0.84540000000000004</v>
+        <v>0.84240000000000004</v>
       </c>
       <c r="G6">
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="H6">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="I6">
+        <v>0.85509999999999997</v>
+      </c>
+      <c r="J6">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="L6">
         <v>0.84740000000000004</v>
       </c>
-      <c r="H6">
-        <v>0.85119999999999996</v>
-      </c>
-      <c r="I6">
-        <v>0.85429999999999995</v>
-      </c>
-      <c r="J6">
-        <v>0.85660000000000003</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.85780000000000001</v>
-      </c>
-      <c r="L6">
-        <v>0.85580000000000001</v>
-      </c>
       <c r="M6">
-        <v>0.8528</v>
+        <v>0.84750000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
@@ -695,74 +8508,74 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
       <c r="C9">
-        <v>0.7944</v>
+        <v>0.79579999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="3"/>
       <c r="C10">
-        <v>0.7843</v>
+        <v>0.7833</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
       <c r="C11">
-        <v>0.7843</v>
+        <v>0.7833</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="3"/>
       <c r="C12">
-        <v>0.78549999999999998</v>
+        <v>0.80330000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -819,7 +8632,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>0.73099999999999998</v>
@@ -875,7 +8688,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>0.73099999999999998</v>
@@ -929,7 +8742,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>0.80210000000000004</v>
@@ -982,7 +8795,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0.80210000000000004</v>
@@ -1143,149 +8956,308 @@
         <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>1</v>
+        <v>1.875</v>
       </c>
       <c r="C22" s="1">
-        <v>1.5</v>
+        <v>1.925</v>
       </c>
       <c r="D22" s="1">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="E22" s="1">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="F22" s="1">
-        <v>1.925</v>
+        <v>2.375</v>
       </c>
       <c r="G22" s="1">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H22" s="1">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="J22" s="1">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="K22" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L22" s="1">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="M22" s="1">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N22" s="1">
-        <v>6</v>
-      </c>
-      <c r="O22" s="1">
-        <v>8</v>
-      </c>
-      <c r="P22" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q22" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23">
-        <v>0.62629999999999997</v>
-      </c>
-      <c r="C23">
-        <v>0.76219999999999999</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>0.78610000000000002</v>
+        <v>0.80330000000000001</v>
       </c>
       <c r="E23">
-        <v>0.79820000000000002</v>
-      </c>
-      <c r="F23">
-        <v>0.80249999999999999</v>
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.81069999999999998</v>
       </c>
       <c r="G23">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="H23">
-        <v>0.81110000000000004</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0.81240000000000001</v>
-      </c>
-      <c r="J23">
-        <v>0.81210000000000004</v>
-      </c>
-      <c r="K23">
-        <v>0.8105</v>
-      </c>
-      <c r="L23">
-        <v>0.79790000000000005</v>
-      </c>
-      <c r="M23">
-        <v>0.78469999999999995</v>
-      </c>
-      <c r="N23">
-        <v>0.77429999999999999</v>
-      </c>
-      <c r="O23">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="P23">
-        <v>0.76829999999999998</v>
-      </c>
-      <c r="Q23">
-        <v>0.76419999999999999</v>
+        <v>0.80869999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="C24">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="E24">
+        <v>0.81110000000000004</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.81240000000000001</v>
+      </c>
+      <c r="G24">
+        <v>0.81210000000000004</v>
+      </c>
+      <c r="H24">
+        <v>0.8105</v>
+      </c>
+      <c r="I24">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="J24">
+        <v>0.78469999999999995</v>
+      </c>
+      <c r="K24">
+        <v>0.77429999999999999</v>
+      </c>
+      <c r="L24">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="M24">
+        <v>0.76829999999999998</v>
+      </c>
+      <c r="N24">
+        <v>0.76419999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>0.79590000000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>6</v>
+      </c>
+      <c r="H83">
+        <v>7</v>
+      </c>
+      <c r="I83">
+        <v>8</v>
+      </c>
+      <c r="J83">
+        <v>9</v>
+      </c>
+      <c r="K83">
+        <v>10</v>
+      </c>
+      <c r="L83">
+        <v>11</v>
+      </c>
+      <c r="M83">
+        <v>12</v>
+      </c>
+      <c r="N83">
+        <v>13</v>
+      </c>
+      <c r="O83">
         <v>14</v>
       </c>
-      <c r="G24">
+      <c r="P83">
+        <v>15</v>
+      </c>
+      <c r="Q83">
+        <v>16</v>
+      </c>
+      <c r="R83">
+        <v>17</v>
+      </c>
+      <c r="S83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84">
         <v>0.80330000000000001</v>
       </c>
-      <c r="H24">
-        <v>0.80889999999999995</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0.81069999999999998</v>
-      </c>
-      <c r="J24">
-        <v>0.80869999999999997</v>
+      <c r="C84">
+        <v>0.80330000000000001</v>
+      </c>
+      <c r="D84">
+        <v>0.82330000000000003</v>
+      </c>
+      <c r="E84">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="F84">
+        <v>0.84319999999999995</v>
+      </c>
+      <c r="G84">
+        <v>0.84670000000000001</v>
+      </c>
+      <c r="H84">
+        <v>0.8528</v>
+      </c>
+      <c r="I84">
+        <v>0.85270000000000001</v>
+      </c>
+      <c r="J84">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="K84">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="L84">
+        <v>0.85470000000000002</v>
+      </c>
+      <c r="M84">
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="N84">
+        <v>0.8528</v>
+      </c>
+      <c r="O84">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="P84">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="Q84">
+        <v>0.85580000000000001</v>
+      </c>
+      <c r="R84">
+        <v>0.8538</v>
+      </c>
+      <c r="S84">
+        <v>0.85440000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>0.79590000000000005</v>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85">
+        <v>0.75919999999999999</v>
+      </c>
+      <c r="C85">
+        <v>0.80110000000000003</v>
+      </c>
+      <c r="D85">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="E85">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="F85">
+        <v>0.84509999999999996</v>
+      </c>
+      <c r="G85">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="H85">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="I85">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="J85">
+        <v>0.85519999999999996</v>
+      </c>
+      <c r="K85">
+        <v>0.85660000000000003</v>
+      </c>
+      <c r="L85">
+        <v>0.85870000000000002</v>
+      </c>
+      <c r="M85">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="N85">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="O85">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="P85">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="Q85">
+        <v>0.8659</v>
+      </c>
+      <c r="R85">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="S85">
+        <v>0.86450000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1300,5 +9272,6 @@
     <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>